--- a/DLTDF_Rational.xlsx
+++ b/DLTDF_Rational.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8420FD8F-B588-4045-85CC-A4D44EDC2D3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D51929-6464-4E0C-869E-0DDDD2AD8315}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -218,6 +218,30 @@
     <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,7 +265,7 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -302,25 +326,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Rockwell"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -551,6 +556,25 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Rockwell"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -573,25 +597,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBCA8714-9333-448C-9AC1-F68FB3CDFA25}" name="Tableau1" displayName="Tableau1" ref="B2:J102" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBCA8714-9333-448C-9AC1-F68FB3CDFA25}" name="Tableau1" displayName="Tableau1" ref="B2:J102" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B2:J102" xr:uid="{5F4BA01E-7FE1-42D0-9DA2-8075668057EB}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4F60C25E-01CB-4A86-A4DB-A16DF25976C9}" name="Level" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{652BC4F2-A4E5-44D7-B1C9-8DD406918A4C}" name="BPM" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{902DBD8A-D575-4C26-8D08-58956B4AB51F}" name="Number_Spawned" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F6306727-506A-4AF0-8241-98A4D274937B}" name="Number_Drink" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{D59FD754-FD89-4DE2-81BD-3937E03DE671}" name="Number_Talk" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{4D512B6F-B97D-474E-991C-86CB9BE9AE6B}" name="Number_Dance" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{E491D2FA-1418-4DC9-845A-6553570787C1}" name="Number_Drug" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{CB8FEF8A-0D65-4DD9-B8D7-B259A8CFFFEE}" name="Number_Photo" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{BA43BD1B-BE6C-433C-A808-6E4954CA4080}" name="Number_Fight" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4F60C25E-01CB-4A86-A4DB-A16DF25976C9}" name="Level" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{652BC4F2-A4E5-44D7-B1C9-8DD406918A4C}" name="BPM" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{902DBD8A-D575-4C26-8D08-58956B4AB51F}" name="Number_Spawned" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F6306727-506A-4AF0-8241-98A4D274937B}" name="Number_Drink" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{D59FD754-FD89-4DE2-81BD-3937E03DE671}" name="Number_Talk" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4D512B6F-B97D-474E-991C-86CB9BE9AE6B}" name="Number_Dance" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E491D2FA-1418-4DC9-845A-6553570787C1}" name="Number_Drug" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{CB8FEF8A-0D65-4DD9-B8D7-B259A8CFFFEE}" name="Number_Photo" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{BA43BD1B-BE6C-433C-A808-6E4954CA4080}" name="Number_Fight" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D9B2B9A-0334-4CDD-9426-41D221A0808F}" name="Tableau3" displayName="Tableau3" ref="L2:O102" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1D9B2B9A-0334-4CDD-9426-41D221A0808F}" name="Tableau3" displayName="Tableau3" ref="L2:O102" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="L2:O102" xr:uid="{4B41AFE7-A60B-4FA6-9972-DC63A774C799}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A9A978DF-461A-426A-9B07-87B70C861F69}" name="Level_Value" dataDxfId="3">
@@ -604,7 +628,7 @@
       <calculatedColumnFormula>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{3C90EE12-BD98-4FCA-A8F9-5BD4D3429B22}" name="Difficulty" dataDxfId="0">
-      <calculatedColumnFormula>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</calculatedColumnFormula>
+      <calculatedColumnFormula>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -878,7 +902,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -892,13 +916,16 @@
     <col min="9" max="9" width="15.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" style="3" customWidth="1"/>
     <col min="11" max="11" width="3.77734375" style="2" customWidth="1"/>
-    <col min="12" max="15" width="15.77734375" style="3" customWidth="1"/>
+    <col min="12" max="14" width="15.77734375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" style="27" customWidth="1"/>
     <col min="16" max="16" width="3.77734375" style="2" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" style="2"/>
     <col min="18" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:15" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="20"/>
+    </row>
     <row r="2" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>11</v>
@@ -936,7 +963,7 @@
       <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -980,9 +1007,9 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>0.5</v>
       </c>
-      <c r="O3" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>0.5</v>
+      <c r="O3" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1025,9 +1052,9 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>0.45</v>
       </c>
-      <c r="O4" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>0.9</v>
+      <c r="O4" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1070,9 +1097,9 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>0.4</v>
       </c>
-      <c r="O5" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>1.2000000000000002</v>
+      <c r="O5" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1086,16 +1113,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1109,15 +1136,15 @@
       </c>
       <c r="M6" s="12">
         <f>Tableau1[[#This Row],[Number_Drink]]*2+Tableau1[[#This Row],[Number_Talk]]*3+Tableau1[[#This Row],[Number_Dance]]*4+Tableau1[[#This Row],[Number_Drug]]*5+Tableau1[[#This Row],[Number_Photo]]*10+Tableau1[[#This Row],[Number_Fight]]*10</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N6" s="13">
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
-        <v>-1</v>
-      </c>
-      <c r="O6" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>-4</v>
+        <v>0.35</v>
+      </c>
+      <c r="O6" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>11.428571428571429</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1131,22 +1158,22 @@
         <v>4</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="12">
         <f>Tableau1[[#This Row],[Number_Spawned]]*10</f>
@@ -1154,15 +1181,15 @@
       </c>
       <c r="M7" s="12">
         <f>Tableau1[[#This Row],[Number_Drink]]*2+Tableau1[[#This Row],[Number_Talk]]*3+Tableau1[[#This Row],[Number_Dance]]*4+Tableau1[[#This Row],[Number_Drug]]*5+Tableau1[[#This Row],[Number_Photo]]*10+Tableau1[[#This Row],[Number_Fight]]*10</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N7" s="13">
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
-        <v>-1</v>
-      </c>
-      <c r="O7" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>-4</v>
+        <v>0.25</v>
+      </c>
+      <c r="O7" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1176,13 +1203,13 @@
         <v>4</v>
       </c>
       <c r="E8" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -1199,15 +1226,15 @@
       </c>
       <c r="M8" s="12">
         <f>Tableau1[[#This Row],[Number_Drink]]*2+Tableau1[[#This Row],[Number_Talk]]*3+Tableau1[[#This Row],[Number_Dance]]*4+Tableau1[[#This Row],[Number_Drug]]*5+Tableau1[[#This Row],[Number_Photo]]*10+Tableau1[[#This Row],[Number_Fight]]*10</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N8" s="13">
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
-        <v>-1</v>
-      </c>
-      <c r="O8" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>-4</v>
+        <v>0.15</v>
+      </c>
+      <c r="O8" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1224,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="7">
         <v>0</v>
@@ -1244,15 +1271,15 @@
       </c>
       <c r="M9" s="10">
         <f>Tableau1[[#This Row],[Number_Drink]]*2+Tableau1[[#This Row],[Number_Talk]]*3+Tableau1[[#This Row],[Number_Dance]]*4+Tableau1[[#This Row],[Number_Drug]]*5+Tableau1[[#This Row],[Number_Photo]]*10+Tableau1[[#This Row],[Number_Fight]]*10</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N9" s="11">
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
-        <v>-1</v>
-      </c>
-      <c r="O9" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>-5</v>
+        <v>0.1</v>
+      </c>
+      <c r="O9" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1266,19 +1293,19 @@
         <v>5</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="7">
         <v>0</v>
@@ -1289,15 +1316,15 @@
       </c>
       <c r="M10" s="10">
         <f>Tableau1[[#This Row],[Number_Drink]]*2+Tableau1[[#This Row],[Number_Talk]]*3+Tableau1[[#This Row],[Number_Dance]]*4+Tableau1[[#This Row],[Number_Drug]]*5+Tableau1[[#This Row],[Number_Photo]]*10+Tableau1[[#This Row],[Number_Fight]]*10</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N10" s="11">
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
-        <v>-1</v>
-      </c>
-      <c r="O10" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>-5</v>
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1311,22 +1338,22 @@
         <v>6</v>
       </c>
       <c r="E11" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
       </c>
       <c r="J11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="15">
         <f>Tableau1[[#This Row],[Number_Spawned]]*10</f>
@@ -1334,15 +1361,15 @@
       </c>
       <c r="M11" s="15">
         <f>Tableau1[[#This Row],[Number_Drink]]*2+Tableau1[[#This Row],[Number_Talk]]*3+Tableau1[[#This Row],[Number_Dance]]*4+Tableau1[[#This Row],[Number_Drug]]*5+Tableau1[[#This Row],[Number_Photo]]*10+Tableau1[[#This Row],[Number_Fight]]*10</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N11" s="16">
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
-        <v>-1</v>
-      </c>
-      <c r="O11" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>-6</v>
+        <v>0.05</v>
+      </c>
+      <c r="O11" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1356,19 +1383,19 @@
         <v>6</v>
       </c>
       <c r="E12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="17">
         <v>0</v>
@@ -1379,15 +1406,15 @@
       </c>
       <c r="M12" s="18">
         <f>Tableau1[[#This Row],[Number_Drink]]*2+Tableau1[[#This Row],[Number_Talk]]*3+Tableau1[[#This Row],[Number_Dance]]*4+Tableau1[[#This Row],[Number_Drug]]*5+Tableau1[[#This Row],[Number_Photo]]*10+Tableau1[[#This Row],[Number_Fight]]*10</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="N12" s="19">
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
-        <v>-1</v>
-      </c>
-      <c r="O12" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
-        <v>-6</v>
+        <v>0.05</v>
+      </c>
+      <c r="O12" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
@@ -1430,8 +1457,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O13" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O13" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-6.25</v>
       </c>
     </row>
@@ -1475,8 +1502,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O14" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O14" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-7.291666666666667</v>
       </c>
     </row>
@@ -1520,8 +1547,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O15" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O15" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-8.3333333333333339</v>
       </c>
     </row>
@@ -1565,8 +1592,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O16" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O16" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-9.375</v>
       </c>
     </row>
@@ -1610,8 +1637,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O17" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O17" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-9.375</v>
       </c>
     </row>
@@ -1655,8 +1682,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O18" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O18" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-9.375</v>
       </c>
     </row>
@@ -1700,8 +1727,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O19" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O19" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-10.416666666666668</v>
       </c>
     </row>
@@ -1745,8 +1772,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O20" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O20" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-10.416666666666668</v>
       </c>
     </row>
@@ -1790,8 +1817,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O21" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O21" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-11.458333333333334</v>
       </c>
     </row>
@@ -1835,8 +1862,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O22" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O22" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-11.458333333333334</v>
       </c>
     </row>
@@ -1880,8 +1907,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O23" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O23" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-11.916666666666666</v>
       </c>
     </row>
@@ -1925,8 +1952,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O24" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O24" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-13</v>
       </c>
     </row>
@@ -1970,8 +1997,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O25" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O25" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-14.083333333333332</v>
       </c>
     </row>
@@ -2015,8 +2042,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O26" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O26" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-15.166666666666666</v>
       </c>
     </row>
@@ -2060,8 +2087,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O27" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O27" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-15.166666666666666</v>
       </c>
     </row>
@@ -2105,8 +2132,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O28" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O28" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-15.166666666666666</v>
       </c>
     </row>
@@ -2150,8 +2177,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O29" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O29" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-16.25</v>
       </c>
     </row>
@@ -2195,8 +2222,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O30" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O30" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-16.25</v>
       </c>
     </row>
@@ -2240,8 +2267,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O31" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O31" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-17.333333333333332</v>
       </c>
     </row>
@@ -2285,8 +2312,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O32" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O32" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-17.333333333333332</v>
       </c>
     </row>
@@ -2330,8 +2357,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O33" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O33" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-18</v>
       </c>
     </row>
@@ -2375,8 +2402,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O34" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O34" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-19.125</v>
       </c>
     </row>
@@ -2420,8 +2447,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O35" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O35" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-20.25</v>
       </c>
     </row>
@@ -2465,8 +2492,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O36" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O36" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-21.375</v>
       </c>
     </row>
@@ -2510,8 +2537,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O37" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O37" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-21.375</v>
       </c>
     </row>
@@ -2555,8 +2582,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O38" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O38" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-21.375</v>
       </c>
     </row>
@@ -2600,8 +2627,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O39" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O39" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-22.5</v>
       </c>
     </row>
@@ -2645,8 +2672,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O40" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O40" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-22.5</v>
       </c>
     </row>
@@ -2690,8 +2717,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O41" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O41" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-23.625</v>
       </c>
     </row>
@@ -2735,8 +2762,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O42" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O42" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-23.625</v>
       </c>
     </row>
@@ -2780,8 +2807,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O43" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O43" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-24.5</v>
       </c>
     </row>
@@ -2825,8 +2852,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O44" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O44" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-25.666666666666668</v>
       </c>
     </row>
@@ -2870,8 +2897,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O45" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O45" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-26.833333333333336</v>
       </c>
     </row>
@@ -2915,8 +2942,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O46" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O46" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-28</v>
       </c>
     </row>
@@ -2960,8 +2987,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O47" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O47" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-28</v>
       </c>
     </row>
@@ -3005,8 +3032,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O48" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O48" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-28</v>
       </c>
     </row>
@@ -3050,8 +3077,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O49" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O49" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-29.166666666666668</v>
       </c>
     </row>
@@ -3095,8 +3122,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O50" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O50" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-29.166666666666668</v>
       </c>
     </row>
@@ -3140,8 +3167,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O51" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O51" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-30.333333333333336</v>
       </c>
     </row>
@@ -3185,8 +3212,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O52" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O52" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-30.333333333333336</v>
       </c>
     </row>
@@ -3230,8 +3257,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O53" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O53" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-31.416666666666664</v>
       </c>
     </row>
@@ -3275,8 +3302,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O54" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O54" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-32.625</v>
       </c>
     </row>
@@ -3320,8 +3347,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O55" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O55" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-33.833333333333329</v>
       </c>
     </row>
@@ -3365,8 +3392,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O56" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O56" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-35.041666666666664</v>
       </c>
     </row>
@@ -3410,8 +3437,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O57" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O57" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-35.041666666666664</v>
       </c>
     </row>
@@ -3455,8 +3482,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O58" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O58" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-35.041666666666664</v>
       </c>
     </row>
@@ -3500,8 +3527,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O59" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O59" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-36.25</v>
       </c>
     </row>
@@ -3545,8 +3572,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O60" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O60" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-36.25</v>
       </c>
     </row>
@@ -3590,8 +3617,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O61" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O61" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-37.458333333333329</v>
       </c>
     </row>
@@ -3635,8 +3662,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O62" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O62" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-37.458333333333329</v>
       </c>
     </row>
@@ -3680,8 +3707,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O63" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O63" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-38.75</v>
       </c>
     </row>
@@ -3725,8 +3752,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O64" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O64" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-40</v>
       </c>
     </row>
@@ -3770,8 +3797,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O65" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O65" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-41.25</v>
       </c>
     </row>
@@ -3815,8 +3842,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O66" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O66" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-42.5</v>
       </c>
     </row>
@@ -3860,8 +3887,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O67" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O67" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-42.5</v>
       </c>
     </row>
@@ -3905,8 +3932,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O68" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O68" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-42.5</v>
       </c>
     </row>
@@ -3950,8 +3977,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O69" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O69" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-43.75</v>
       </c>
     </row>
@@ -3995,8 +4022,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O70" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O70" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-43.75</v>
       </c>
     </row>
@@ -4040,8 +4067,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O71" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O71" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-45</v>
       </c>
     </row>
@@ -4085,8 +4112,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O72" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O72" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-45</v>
       </c>
     </row>
@@ -4130,8 +4157,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O73" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O73" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-46.5</v>
       </c>
     </row>
@@ -4175,8 +4202,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O74" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O74" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-47.791666666666671</v>
       </c>
     </row>
@@ -4220,8 +4247,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O75" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O75" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-49.083333333333336</v>
       </c>
     </row>
@@ -4265,8 +4292,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O76" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O76" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-50.375</v>
       </c>
     </row>
@@ -4310,8 +4337,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O77" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O77" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-50.375</v>
       </c>
     </row>
@@ -4355,8 +4382,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O78" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O78" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-50.375</v>
       </c>
     </row>
@@ -4400,8 +4427,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O79" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O79" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-51.666666666666671</v>
       </c>
     </row>
@@ -4445,8 +4472,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O80" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O80" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-51.666666666666671</v>
       </c>
     </row>
@@ -4490,8 +4517,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O81" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O81" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-52.958333333333336</v>
       </c>
     </row>
@@ -4535,8 +4562,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O82" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O82" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-52.958333333333336</v>
       </c>
     </row>
@@ -4580,8 +4607,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O83" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O83" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-54.666666666666664</v>
       </c>
     </row>
@@ -4625,8 +4652,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O84" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O84" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-56</v>
       </c>
     </row>
@@ -4670,8 +4697,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O85" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O85" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-57.333333333333329</v>
       </c>
     </row>
@@ -4715,8 +4742,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O86" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O86" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-58.666666666666664</v>
       </c>
     </row>
@@ -4760,8 +4787,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O87" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O87" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-58.666666666666664</v>
       </c>
     </row>
@@ -4805,8 +4832,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O88" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O88" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-58.666666666666664</v>
       </c>
     </row>
@@ -4850,8 +4877,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O89" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O89" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-60</v>
       </c>
     </row>
@@ -4895,8 +4922,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O90" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O90" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-60</v>
       </c>
     </row>
@@ -4940,8 +4967,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O91" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O91" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-61.333333333333329</v>
       </c>
     </row>
@@ -4985,8 +5012,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O92" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O92" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-61.333333333333329</v>
       </c>
     </row>
@@ -5030,8 +5057,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O93" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O93" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-63.25</v>
       </c>
     </row>
@@ -5075,8 +5102,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O94" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O94" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-64.625</v>
       </c>
     </row>
@@ -5120,8 +5147,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O95" s="5">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O95" s="22">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-66</v>
       </c>
     </row>
@@ -5165,8 +5192,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O96" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O96" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-67.375</v>
       </c>
     </row>
@@ -5210,8 +5237,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O97" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O97" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-67.375</v>
       </c>
     </row>
@@ -5255,8 +5282,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O98" s="6">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O98" s="23">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-67.375</v>
       </c>
     </row>
@@ -5300,8 +5327,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O99" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O99" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-68.75</v>
       </c>
     </row>
@@ -5345,8 +5372,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O100" s="7">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O100" s="24">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-68.75</v>
       </c>
     </row>
@@ -5390,8 +5417,8 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O101" s="14">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O101" s="25">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-70.125</v>
       </c>
     </row>
@@ -5435,12 +5462,14 @@
         <f>(Tableau3[[#This Row],[Ressources_Value]]-Tableau3[[#This Row],[Level_Value]])/Tableau3[[#This Row],[Level_Value]]</f>
         <v>-1</v>
       </c>
-      <c r="O102" s="17">
-        <f>Tableau3[[#This Row],[Error_Margin]]*((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])</f>
+      <c r="O102" s="26">
+        <f>((Tableau1[[#This Row],[BPM]]/120)*Tableau1[[#This Row],[Number_Spawned]])/Tableau3[[#This Row],[Error_Margin]]</f>
         <v>-70.125</v>
       </c>
     </row>
-    <row r="103" spans="2:15" s="2" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="2:15" s="2" customFormat="1" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="O103" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
